--- a/04- Business Rules/RPaM_BusinessRules.xlsx
+++ b/04- Business Rules/RPaM_BusinessRules.xlsx
@@ -5,19 +5,20 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maanjade\everis\Powers and Mandates - Documents\General\01. Delivery\02. Task 2\Artefacts\06. Business Rules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maanjade\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9420" yWindow="60" windowWidth="8700" windowHeight="6555" activeTab="1"/>
+    <workbookView xWindow="9420" yWindow="60" windowWidth="8700" windowHeight="6555" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="52" r:id="rId1"/>
     <sheet name="Business_Rules" sheetId="51" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="53" r:id="rId3"/>
+    <sheet name="Business_Requirements" sheetId="54" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="53" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Business_Rules!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Business_Rules!$A$1:$K$1</definedName>
     <definedName name="input">#REF!</definedName>
     <definedName name="pattern">#REF!</definedName>
     <definedName name="type">#REF!</definedName>
@@ -32,20 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="88">
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Rule number</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
   <si>
     <t>Validation rules</t>
   </si>
   <si>
-    <t>R100</t>
-  </si>
-  <si>
     <t>eMandate Request</t>
   </si>
   <si>
@@ -115,18 +107,9 @@
     <t>ERROR</t>
   </si>
   <si>
-    <t>When a Mandator is a Mandatee with Delegation Power, the eMandate must refer to the eMandate where the Mandatee was assigned the Delegation Power.</t>
-  </si>
-  <si>
     <t>Defined in</t>
   </si>
   <si>
-    <t>R101</t>
-  </si>
-  <si>
-    <t>R102</t>
-  </si>
-  <si>
     <t>Referrenced in</t>
   </si>
   <si>
@@ -148,154 +131,133 @@
     <t>INFO</t>
   </si>
   <si>
-    <t>R103</t>
-  </si>
-  <si>
-    <t>A Mandate must have one and only Mandator.</t>
-  </si>
-  <si>
-    <t>A mandator must have an age superior to 18 years old.</t>
-  </si>
-  <si>
-    <t>A mandate start date must be prior to the Mandate end date.</t>
-  </si>
-  <si>
-    <t>An eMandateResponse must be sent after the eMandateRequest.</t>
-  </si>
-  <si>
-    <t>A natural Person must specify her Age, First Name and Familly Name.</t>
-  </si>
-  <si>
-    <t>A Mandate must not have more than one lifeSpan.</t>
-  </si>
-  <si>
-    <t>When a Mandatee delegates to another Mandatee, the eMandateRequest must refer to the mandator and to all the previous mandatees.</t>
-  </si>
-  <si>
-    <t>When a Mandatee delegates to another Mandatee, the the Mandator and all the previous mandatees must be notified.</t>
-  </si>
-  <si>
-    <t>A Mandator must have access to all the informations related to his mandates.</t>
-  </si>
-  <si>
-    <t>An Mandate must refer to the delegation level.</t>
-  </si>
-  <si>
-    <t>A Mandate must always refer to its start date.</t>
-  </si>
-  <si>
-    <t>A Mandate status must not change if it´s status is "unauthorised. A new eMandateRequest must be submitted..</t>
-  </si>
-  <si>
-    <t>A Mandate status must not change if it´s status is "expired". A  new eMandateRequest must be submitted..</t>
-  </si>
-  <si>
-    <t>A mandate must refair to a start Date.</t>
-  </si>
-  <si>
-    <t>A powers must not have a delegation level greater than 3.</t>
-  </si>
-  <si>
-    <t>A mandate which does not have an end date or a a duration must not have as status "expired".</t>
-  </si>
-  <si>
-    <t>A Mandate must not be approved before it is confirmed.</t>
-  </si>
-  <si>
-    <t>A Mandator must not extend the period of validity of a power if it exceeds the period established by the legislation in force.</t>
-  </si>
-  <si>
-    <t>A Mandate must not be confirmed prior to it´s approval.</t>
-  </si>
-  <si>
-    <t>A Mandate must not refer to different powers if the established legislation does not allow to have these powers simultaneously.</t>
-  </si>
-  <si>
-    <t>A mandate, power, mandator or mandatee must have an unique identifier.</t>
-  </si>
-  <si>
-    <t>The necessary evidences proving that a mandator or mandatee satisfies the requirements must be attached to the eMandate request.</t>
-  </si>
-  <si>
-    <t>An eMandateResponse must refer to the status of the Power.</t>
-  </si>
-  <si>
-    <t>A Mandate must refer to the geospatial contraint of the Power it refers to.</t>
-  </si>
-  <si>
-    <t>R104</t>
-  </si>
-  <si>
-    <t>R105</t>
-  </si>
-  <si>
-    <t>R106</t>
-  </si>
-  <si>
-    <t>R107</t>
-  </si>
-  <si>
-    <t>R108</t>
-  </si>
-  <si>
-    <t>R109</t>
-  </si>
-  <si>
-    <t>R110</t>
-  </si>
-  <si>
-    <t>R111</t>
-  </si>
-  <si>
-    <t>R112</t>
-  </si>
-  <si>
-    <t>R113</t>
-  </si>
-  <si>
-    <t>R114</t>
-  </si>
-  <si>
-    <t>R115</t>
-  </si>
-  <si>
-    <t>R116</t>
-  </si>
-  <si>
-    <t>R117</t>
-  </si>
-  <si>
-    <t>R118</t>
-  </si>
-  <si>
-    <t>R119</t>
-  </si>
-  <si>
-    <t>R120</t>
-  </si>
-  <si>
-    <t>R121</t>
-  </si>
-  <si>
-    <t>R122</t>
-  </si>
-  <si>
-    <t>R123</t>
-  </si>
-  <si>
-    <t>R124</t>
-  </si>
-  <si>
-    <t>R125</t>
-  </si>
-  <si>
     <t>Agent the rule applies to</t>
   </si>
   <si>
-    <t>An unfavourable eMandateResponse must always trigger a notification including a justification.</t>
-  </si>
-  <si>
-    <t>A revoked or expired mandate must refer to the end date.</t>
+    <t>When a mandator is a mandatee with Delegation Power, the Mandate must refer to the mandate where the mandatee was assigned the Delegation Power.</t>
+  </si>
+  <si>
+    <t>When a mandatee delegates to another mandatee, the the mandator and all the previous mandatees must be notified.</t>
+  </si>
+  <si>
+    <t>Delegations should not reach the level 3.</t>
+  </si>
+  <si>
+    <t>Periods must check the non-co-occurrence of the end-date and the duration measure.</t>
+  </si>
+  <si>
+    <t>Periods must check that the end date is not lesser than the start date.</t>
+  </si>
+  <si>
+    <t>A mandate must have one and only mandator.</t>
+  </si>
+  <si>
+    <t>A mandate, power, mandator and mandatee must have an unique identifier.</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At least one instance of mandate or exception must be present in an eMandate Response. </t>
+  </si>
+  <si>
+    <t>A Service Provider must be able to specify which data it expects in the response to an eMandate Request to allow the use of a Service by a mandatee. This is namely necessary for non-harmonised services.</t>
+  </si>
+  <si>
+    <t>A Service Provider must be able to cite the legal basis that supports an eAuthorisation criterion.</t>
+  </si>
+  <si>
+    <t>Requirement ID</t>
+  </si>
+  <si>
+    <t>Rule ID</t>
+  </si>
+  <si>
+    <t>A mandator must be able to impose limitations on the use of the powers I allocate; e.g. temporal, financial, territorial, administrative, frequency of use constraints, etc.</t>
+  </si>
+  <si>
+    <t>An eMandate Registry be notified on events that change the status of a power in a mandate; e.g. Upon consumption of a one-single-used power.</t>
+  </si>
+  <si>
+    <t>One type of IRC cannot be used simultaneously at the request or power levels. (See the use of the CCEV in RPAM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The eMandate Request MUST contain the identifier(s) of those mandatees for which Mandates are being Requested. </t>
+  </si>
+  <si>
+    <t>The eMandate Response MUST not contain data about mandatees that are not identified in the mandate Request, for data protection and privacy reasons</t>
+  </si>
+  <si>
+    <t>The eMandate Request MUST contain the identifier(s) of the mandate.</t>
+  </si>
+  <si>
+    <t>A Service Provider should not receive eMandate Responses containing stuck-off mandates.</t>
+  </si>
+  <si>
+    <t>When all the powers in a mandate are invalid, the mandate should be struck-off; e.g. When the validity power of each power in the mandate have expired.</t>
+  </si>
+  <si>
+    <t>When a Mandate is struck off, all the empowerements contained therein must be invalidated. E.g. The power status could be changed into MANDATE-STRUCK-OFF.</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>R002</t>
+  </si>
+  <si>
+    <t>R001</t>
+  </si>
+  <si>
+    <t>R003</t>
+  </si>
+  <si>
+    <t>R004</t>
+  </si>
+  <si>
+    <t>R005</t>
+  </si>
+  <si>
+    <t>R006</t>
+  </si>
+  <si>
+    <t>R007</t>
+  </si>
+  <si>
+    <t>BREQ001</t>
+  </si>
+  <si>
+    <t>BREQ002</t>
+  </si>
+  <si>
+    <t>BREQ003</t>
+  </si>
+  <si>
+    <t>BREQ004</t>
+  </si>
+  <si>
+    <t>BREQ005</t>
+  </si>
+  <si>
+    <t>BREQ006</t>
+  </si>
+  <si>
+    <t>BREQ007</t>
+  </si>
+  <si>
+    <t>R008</t>
+  </si>
+  <si>
+    <t>R009</t>
+  </si>
+  <si>
+    <t>R010</t>
+  </si>
+  <si>
+    <t>R011</t>
+  </si>
+  <si>
+    <t>R012</t>
   </si>
 </sst>
 </file>
@@ -859,7 +821,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -877,6 +839,16 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="106">
@@ -1305,54 +1277,54 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1365,821 +1337,323 @@
   <sheetPr codeName="Sheet2">
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7:F14"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12" style="2" customWidth="1"/>
-    <col min="4" max="5" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="173.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="2"/>
-    <col min="11" max="11" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="2" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="107.28515625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="5" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="H1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" s="4" t="s">
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="K3" s="7"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>53</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="1"/>
+      <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="K4" s="7"/>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="E5" s="7"/>
-      <c r="F5" s="7" t="s">
-        <v>52</v>
-      </c>
+      <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="E6" s="7"/>
-      <c r="F6" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="E7" s="7"/>
-      <c r="F7" s="7" t="s">
-        <v>45</v>
-      </c>
+      <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="7" t="s">
-        <v>46</v>
-      </c>
+      <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="E9" s="7"/>
-      <c r="F9" s="7" t="s">
-        <v>39</v>
-      </c>
+      <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="E10" s="7"/>
-      <c r="F10" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="E11" s="7"/>
-      <c r="F11" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="L11" s="10"/>
+    </row>
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="E12" s="7"/>
-      <c r="F12" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="L12" s="10"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+        <v>74</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="7" t="s">
-        <v>43</v>
-      </c>
+      <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
+      <c r="L13" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1"/>
+  <autoFilter ref="A1:K1"/>
   <sortState ref="A2:AC224">
     <sortCondition ref="A1"/>
   </sortState>
@@ -2192,13 +1666,13 @@
           <x14:formula1>
             <xm:f>Sheet1!$C$3:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>I25:I38 C1:C1048576</xm:sqref>
+          <xm:sqref>G9 C1:C1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$E$3:$E$5</xm:f>
           </x14:formula1>
-          <xm:sqref>H25:H38 M25:M38 B1:B1048576</xm:sqref>
+          <xm:sqref>F9 K9 B1:B1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2207,6 +1681,90 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="C2:E5"/>
@@ -2223,34 +1781,34 @@
   <sheetData>
     <row r="2" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/04- Business Rules/RPaM_BusinessRules.xlsx
+++ b/04- Business Rules/RPaM_BusinessRules.xlsx
@@ -5,17 +5,16 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maanjade\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\RPaM-GitHub\04- Business Rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9420" yWindow="60" windowWidth="8700" windowHeight="6555" activeTab="2"/>
+    <workbookView xWindow="9420" yWindow="60" windowWidth="8700" windowHeight="6555" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="52" r:id="rId1"/>
     <sheet name="Business_Rules" sheetId="51" r:id="rId2"/>
     <sheet name="Business_Requirements" sheetId="54" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="53" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Business_Rules!$A$1:$K$1</definedName>
@@ -25,15 +24,15 @@
   </definedNames>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <customWorkbookViews>
+    <customWorkbookView name="Rafes - Affichage personnalisé" guid="{480363B6-61E2-4BBE-BEFA-2DB732285C19}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="746" activeSheetId="24"/>
+    <customWorkbookView name="ZACHARIE Cyrille (OP-EXT) - Personal View" guid="{9AFCF8A3-F544-40DF-871D-E3C884A4BF23}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1256" windowHeight="765" activeSheetId="1" showComments="commIndAndComment"/>
     <customWorkbookView name="Lamya Rafes - Personal View" guid="{DA88ECEF-EF7A-45D7-8EAA-0C9CE397EB63}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1676" windowHeight="745" activeSheetId="14"/>
-    <customWorkbookView name="ZACHARIE Cyrille (OP-EXT) - Personal View" guid="{9AFCF8A3-F544-40DF-871D-E3C884A4BF23}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1256" windowHeight="765" activeSheetId="1" showComments="commIndAndComment"/>
-    <customWorkbookView name="Rafes - Affichage personnalisé" guid="{480363B6-61E2-4BBE-BEFA-2DB732285C19}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="746" activeSheetId="24"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="79">
   <si>
     <t>Validation rules</t>
   </si>
@@ -113,36 +112,12 @@
     <t>Referrenced in</t>
   </si>
   <si>
-    <t>DEPRECATED</t>
-  </si>
-  <si>
-    <t>PHASED-OUT</t>
-  </si>
-  <si>
-    <t>STATUS:</t>
-  </si>
-  <si>
-    <t>Sev. Status</t>
-  </si>
-  <si>
-    <t>WARNING</t>
-  </si>
-  <si>
-    <t>INFO</t>
-  </si>
-  <si>
     <t>Agent the rule applies to</t>
   </si>
   <si>
     <t>When a mandator is a mandatee with Delegation Power, the Mandate must refer to the mandate where the mandatee was assigned the Delegation Power.</t>
   </si>
   <si>
-    <t>When a mandatee delegates to another mandatee, the the mandator and all the previous mandatees must be notified.</t>
-  </si>
-  <si>
-    <t>Delegations should not reach the level 3.</t>
-  </si>
-  <si>
     <t>Periods must check the non-co-occurrence of the end-date and the duration measure.</t>
   </si>
   <si>
@@ -155,12 +130,6 @@
     <t>A mandate, power, mandator and mandatee must have an unique identifier.</t>
   </si>
   <si>
-    <t>Topic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At least one instance of mandate or exception must be present in an eMandate Response. </t>
-  </si>
-  <si>
     <t>A Service Provider must be able to specify which data it expects in the response to an eMandate Request to allow the use of a Service by a mandatee. This is namely necessary for non-harmonised services.</t>
   </si>
   <si>
@@ -179,27 +148,9 @@
     <t>An eMandate Registry be notified on events that change the status of a power in a mandate; e.g. Upon consumption of a one-single-used power.</t>
   </si>
   <si>
-    <t>One type of IRC cannot be used simultaneously at the request or power levels. (See the use of the CCEV in RPAM)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The eMandate Request MUST contain the identifier(s) of those mandatees for which Mandates are being Requested. </t>
-  </si>
-  <si>
-    <t>The eMandate Response MUST not contain data about mandatees that are not identified in the mandate Request, for data protection and privacy reasons</t>
-  </si>
-  <si>
-    <t>The eMandate Request MUST contain the identifier(s) of the mandate.</t>
-  </si>
-  <si>
     <t>A Service Provider should not receive eMandate Responses containing stuck-off mandates.</t>
   </si>
   <si>
-    <t>When all the powers in a mandate are invalid, the mandate should be struck-off; e.g. When the validity power of each power in the mandate have expired.</t>
-  </si>
-  <si>
-    <t>When a Mandate is struck off, all the empowerements contained therein must be invalidated. E.g. The power status could be changed into MANDATE-STRUCK-OFF.</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -258,13 +209,73 @@
   </si>
   <si>
     <t>R012</t>
+  </si>
+  <si>
+    <t>An eMandate Request MUST contain the identifier(s) of the mandate.</t>
+  </si>
+  <si>
+    <t>An eMandate Response MUST not contain data about mandatees that are not identified in the mandate Request, for data protection and privacy reasons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An eMandate Request MUST contain the identifier(s) of those mandatees for which Mandates are being Requested. </t>
+  </si>
+  <si>
+    <t>R013</t>
+  </si>
+  <si>
+    <t>R014</t>
+  </si>
+  <si>
+    <t>A mandatee MUST NOT be able to delegate the power to other agents unless specified.</t>
+  </si>
+  <si>
+    <t>One type of IRC MUST NOT used simultaneously at the request or power levels. (See the use of the CCEV in RPAM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An eMandate Response MUST contain at least one instance of mandate or exception must be present in </t>
+  </si>
+  <si>
+    <t>A delegation chain must not exceed three levels.</t>
+  </si>
+  <si>
+    <t>In the case where a mandatee delegates to another mandatee, the the mandator and all the previous mandatees must be notified.</t>
+  </si>
+  <si>
+    <t>In the case where a power is not delegated, the Power source MUST NOT be specfied.</t>
+  </si>
+  <si>
+    <t>In the case where a power is delegated, all the previous agents in the delegation chain MUST be notified.</t>
+  </si>
+  <si>
+    <t>RO15</t>
+  </si>
+  <si>
+    <t>In the case where a power is delegated, the Power source and the evidence related to it must be specified.</t>
+  </si>
+  <si>
+    <t>In the case where all the powers in a mandate are invalid, the mandate should be struck-off; e.g. When the validity power of each power in the mandate have expired.</t>
+  </si>
+  <si>
+    <t>In the case where a Mandate is struck off, all the empowerements contained therein must be invalidated. E.g. The power status could be changed into MANDATE-STRUCK-OFF.</t>
+  </si>
+  <si>
+    <t>BREQ008</t>
+  </si>
+  <si>
+    <t>A Power MUST not have several power sources simultaneously.</t>
+  </si>
+  <si>
+    <t>RO16</t>
+  </si>
+  <si>
+    <t>In the case of co-representativity, a mandatee can not use a power without his co-representatives.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -441,18 +452,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -575,8 +601,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -706,6 +738,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -821,33 +883,52 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1270,10 +1351,13 @@
   <dimension ref="B2:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
@@ -1337,320 +1421,374 @@
   <sheetPr codeName="Sheet2">
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="2" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="107.28515625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="2" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="11" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="15.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="113" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:11" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="B7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="10"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="10"/>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="10"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="10"/>
-    </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="10"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="10"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="10"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="10"/>
-    </row>
-    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="10"/>
-    </row>
-    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="10"/>
-    </row>
-    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="10"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K1"/>
@@ -1664,13 +1802,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Sheet1!$C$3:$C$5</xm:f>
+            <xm:f>#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>G9 C1:C1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Sheet1!$E$3:$E$5</xm:f>
+            <xm:f>#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>F9 K9 B1:B1048576</xm:sqref>
         </x14:dataValidation>
@@ -1682,10 +1820,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <sheetPr>
+    <tabColor theme="6" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1695,67 +1836,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="A1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="B2" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>54</v>
+      <c r="B8" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1764,62 +1921,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="C2:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2008,27 +2116,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649EF647-6759-4F39-94C8-3DD0E9E03D2E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F8D1163-655F-446F-AC22-8462DBAE1EDE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="1b76f22b-2e86-4845-9316-e91ba1eb8ba5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="80372719-428f-487a-a543-91ae19974bc3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2053,9 +2149,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F8D1163-655F-446F-AC22-8462DBAE1EDE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649EF647-6759-4F39-94C8-3DD0E9E03D2E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="80372719-428f-487a-a543-91ae19974bc3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="1b76f22b-2e86-4845-9316-e91ba1eb8ba5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>